--- a/biology/Zoologie/Bolyeria_multocarinata/Bolyeria_multocarinata.xlsx
+++ b/biology/Zoologie/Bolyeria_multocarinata/Bolyeria_multocarinata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolyeria multocarinata, unique représentant du genre Bolyeria, est une espèce de serpents de la famille des Bolyeriidae[1]. En français elle est appelée Boa de l'île Ronde de Dussumier, Boa fouisseur de l'île Maurice ou Boa fouisseur de l'île Ronde[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolyeria multocarinata, unique représentant du genre Bolyeria, est une espèce de serpents de la famille des Bolyeriidae. En français elle est appelée Boa de l'île Ronde de Dussumier, Boa fouisseur de l'île Maurice ou Boa fouisseur de l'île Ronde.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île Ronde, un îlot à quelques kilomètres au nord de l'île Maurice[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île Ronde, un îlot à quelques kilomètres au nord de l'île Maurice.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">N'ayant pas été observée depuis 1975, elle est présumée éteinte par l'UICN.
 </t>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vernaculaire de cette espèce fait référence à Jean-Jacques Dussumier (1792-1883), un marin de la marine française ayant collecté de nombreux spécimens de ce reptile.
 </t>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boie, 1827 : Bemerkungen über Merrem's Versuch eines Systems der Amphibien, 1. Lieferung: Ophidier. Isis von Oken, Jena, vol. 20, p. 508-566 (texte intégral)
 Gray, 1842 : Synopsis of the species of prehensile-tailed Snakes, or family Boidae.  Zoological Miscellany, London, vol. 2, p. 41-46 (texte intégral).</t>
